--- a/Excel2Json/Test/model_sfx.xlsx
+++ b/Excel2Json/Test/model_sfx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>英雄id</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -32,14 +32,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfx_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>position</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -59,9 +51,6 @@
   </si>
   <si>
     <t>104_Run</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>FX_Hero104_fireback_run</t>
@@ -164,6 +153,58 @@
   </si>
   <si>
     <t>FX_Hero103_Skill004_01_Bip001 Neck</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;64</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[50]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -308,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -617,7 +661,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -638,156 +682,156 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>104</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>104</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
